--- a/src/main/resources/jsonData/Jira.xlsx
+++ b/src/main/resources/jsonData/Jira.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanjeetpandit\eclipse-workspace\JiraBugUsingRestAssred\src\main\resources\jsonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F9BB43-7D29-4700-ADB5-7DDB1DD86155}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66062765-E4D9-4ABC-87D5-B6062D2DB4FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4DAA1D18-91B5-4D24-AEE1-77BB6128F8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="BugDetails" sheetId="2" r:id="rId1"/>
-    <sheet name="data" sheetId="1" r:id="rId2"/>
+    <sheet name="TaskDetails" sheetId="3" r:id="rId2"/>
+    <sheet name="Old_bug" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,37 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>pin</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>qaz!123</t>
-  </si>
-  <si>
-    <t>noida</t>
-  </si>
-  <si>
-    <t>sanjeet</t>
-  </si>
-  <si>
-    <t>wsx132132</t>
-  </si>
-  <si>
-    <t>Gurgaon</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Key</t>
   </si>
@@ -76,24 +47,6 @@
     <t>IssueType</t>
   </si>
   <si>
-    <t>VICRESKIN</t>
-  </si>
-  <si>
-    <t>REST ye merry gentlemen.</t>
-  </si>
-  <si>
-    <t>Creating of an issue using project keys and issue type names using the REST API</t>
-  </si>
-  <si>
-    <t>Step to Reproduce :Desktop \n 1.) Launch Game on Desktop in chinese language</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
     <t>P2</t>
   </si>
   <si>
@@ -113,14 +66,136 @@
   </si>
   <si>
     <t>BugPriority</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>LONGPAO</t>
+  </si>
+  <si>
+    <t>Device : Desktop</t>
+  </si>
+  <si>
+    <t>White Line Boundaries between symbols are having more gap and also moving with symbols</t>
+  </si>
+  <si>
+    <t>1.) Launch Game on any Browsers
+2. ) Click on Spin button
+Obervation 1: There is more gap between symbols
+Observation 2 : White Line Boundary is moving with symbols</t>
+  </si>
+  <si>
+    <t>Obervation 1: There is more gap between symbols
+Observation 2 : White Line Boundary is moving with symbols</t>
+  </si>
+  <si>
+    <t>Obervation 1: There should not be more gap between symbols
+Observation 2 : White Line Boundary should not move with symbols</t>
+  </si>
+  <si>
+    <t>Win Number alignment is not proper</t>
+  </si>
+  <si>
+    <t>There should be proper number alignment in win banners.</t>
+  </si>
+  <si>
+    <t>Text are not visible on free spin cashpanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) Launch Game on any Browsers
+2.) Set any win From JMX
+3.) Win Number alignment is not proper
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.) Launch Game on any Browsers
+2.) Set Free spin From JMX
+3.) Text are not visible on free spin cashpanel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text are not visible on free spin cashpanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Text on cashpanel at free spin mode should be clearly visible tp user</t>
+  </si>
+  <si>
+    <t>Device : Touch</t>
+  </si>
+  <si>
+    <t>Win amounts(numbers) are  displaying wrong data in super mega win at touch.</t>
+  </si>
+  <si>
+    <t>1.) Launch Game on any Browsers
+2.) set Super Mega win from JMX
+3. ) Click on Spin button
+4.) Observed that getting huge differerence in winning amount, like its showing EUR 10000 instead of EUR 1000</t>
+  </si>
+  <si>
+    <t>Win amount should be exact symbols payouts</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Demo Feedback point by Prashant</t>
+  </si>
+  <si>
+    <t>Test data / Automation Execution</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>JMX Demo button</t>
+  </si>
+  <si>
+    <t>Remove "A Netent Production" watermark</t>
+  </si>
+  <si>
+    <t>Game on qucik spin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) If can remove the betlines-&gt; No issue for this game. We can keep it for now.
+2) Speech bubble -&gt; We can remove it.
+3) Free Spin Intro/Outro Screen-&gt;We will get cleaner and normal inro and outro screen.{Touch also}
+</t>
+  </si>
+  <si>
+    <t>Game on qucik spin implementation by default</t>
+  </si>
+  <si>
+    <t>Continue button is not clickable at outro page</t>
+  </si>
+  <si>
+    <t>1.) Launch Game on any Browsers
+2.) set Free Spin from JMX
+3. ) Click on Spin button
+4.) Play the game till outro page
+5.) Continue button is not clickable</t>
+  </si>
+  <si>
+    <t>Continue button should be clickable and leads to main game</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,11 +223,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20D60B-0209-4D3D-87D1-F4D86B89A0AC}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,148 +567,368 @@
     <col min="9" max="9" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4655</v>
+      <c r="D2" s="4">
+        <v>4837</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7454702-FF9D-4FA0-8936-3BE4A8463BA1}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3800B09D-539D-4D21-A025-6F45E8EFBF8A}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4837</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4837</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4837</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4837</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4837</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4837</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FD655E-8A80-4E30-8D5B-C14D79107DA6}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4803</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4803</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>110083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>220042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4803</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>110083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>220042</v>
-      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4803</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
